--- a/C9200L-48T-4G-E_VI.xlsx
+++ b/C9200L-48T-4G-E_VI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B845C2D-0EA1-43AD-92DC-DCB3498A5814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8B9EFF-26FB-4ED5-8725-5CDABDFC47F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Giao diện</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>4 GB</t>
-  </si>
-  <si>
-    <t>12 tháng</t>
   </si>
   <si>
     <t>Điện áp đầu vào</t>
@@ -162,9 +159,6 @@
     <t>125W</t>
   </si>
   <si>
-    <t>PWR-C5-125WAC mặc định, hỗ trợ nguồn dự phòng</t>
-  </si>
-  <si>
     <t>2 quạt cố định</t>
   </si>
   <si>
@@ -210,7 +204,7 @@
     <t>137 Mpps</t>
   </si>
   <si>
-    <t>Bảo hành phần cứng</t>
+    <t>PWR-C5-125WAC mặc định, hỗ trợ khe cắm nguồn dự phòng</t>
   </si>
 </sst>
 </file>
@@ -15067,9 +15061,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15079,7 +15073,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -15087,10 +15081,10 @@
     </row>
     <row r="2" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
@@ -15098,23 +15092,23 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -15122,44 +15116,44 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>7</v>
@@ -15167,47 +15161,47 @@
     </row>
     <row r="12" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6">
         <v>3000</v>
@@ -15215,7 +15209,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6">
         <v>1500</v>
@@ -15223,7 +15217,7 @@
     </row>
     <row r="19" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>1000</v>
@@ -15231,7 +15225,7 @@
     </row>
     <row r="20" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="6">
         <v>1000</v>
@@ -15239,7 +15233,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="6">
         <v>1500</v>
@@ -15250,31 +15244,31 @@
         <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
@@ -15282,15 +15276,15 @@
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -15298,7 +15292,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -15306,15 +15300,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
